--- a/Ders Planı.xlsx
+++ b/Ders Planı.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osman\Desktop\Ders-Plani\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,7 +617,7 @@
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="27">
     <dxf>
       <fill>
         <patternFill>
@@ -636,167 +636,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1246,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,117 +2335,122 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S3:S9 S16:S21 M3:M8">
-    <cfRule type="expression" dxfId="25" priority="21">
+    <cfRule type="expression" dxfId="26" priority="22">
       <formula>IF(Q3=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="25" priority="23">
       <formula>IF(AND(Q3&gt;0, Q3&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="23">
+    <cfRule type="expression" dxfId="24" priority="24">
       <formula>Q3&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="23" priority="9">
       <formula>IF($E$9=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="21" priority="30">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>IF($K$5=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5 T3">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>IF($K$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="19" priority="33">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>IF($K$3=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 T4:T5">
-    <cfRule type="expression" dxfId="18" priority="40">
+    <cfRule type="expression" dxfId="19" priority="41">
       <formula>IF($Q$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 H17">
-    <cfRule type="expression" dxfId="17" priority="43">
+    <cfRule type="expression" dxfId="18" priority="44">
       <formula>IF($Q$5=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="16" priority="45">
+    <cfRule type="expression" dxfId="17" priority="46">
       <formula>IF($Q$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 H16">
-    <cfRule type="expression" dxfId="15" priority="52">
+    <cfRule type="expression" dxfId="16" priority="53">
       <formula>IF($W$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 N17">
-    <cfRule type="expression" dxfId="14" priority="54">
+    <cfRule type="expression" dxfId="15" priority="55">
       <formula>IF($W$3=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="13" priority="61">
+    <cfRule type="expression" dxfId="14" priority="62">
       <formula>IF($E$16=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A23 A3:A10 G3:G8">
-    <cfRule type="expression" dxfId="12" priority="62">
+    <cfRule type="expression" dxfId="13" priority="63">
       <formula>IF(E3=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="63">
+    <cfRule type="expression" dxfId="12" priority="64">
       <formula>IF(AND(E3&gt;0, E3&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="64">
+    <cfRule type="expression" dxfId="11" priority="65">
       <formula>E3&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G23">
-    <cfRule type="expression" dxfId="9" priority="65">
+    <cfRule type="expression" dxfId="10" priority="66">
       <formula>IF(K16=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="66">
+    <cfRule type="expression" dxfId="9" priority="67">
       <formula>IF(AND(K16&gt;0, K16&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="67">
+    <cfRule type="expression" dxfId="8" priority="68">
       <formula>K16&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M22">
-    <cfRule type="expression" dxfId="6" priority="68">
+    <cfRule type="expression" dxfId="7" priority="69">
       <formula>IF(Q16=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="69">
+    <cfRule type="expression" dxfId="6" priority="70">
       <formula>IF(AND(Q16&gt;0, Q16&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="70">
+    <cfRule type="expression" dxfId="5" priority="71">
       <formula>Q16&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>IF($E$9=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>IF($K$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>IF($E$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF($K$5=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF($K$5=0,TRUE,FALSE)</formula>
+      <formula>IF($Q$6=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/Ders Planı.xlsx
+++ b/Ders Planı.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osman\Desktop\Ders-Plani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karaketir16\Desktop\Ders-Plani-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -614,10 +614,213 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -821,7 +1024,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1085,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,122 +2538,127 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="S3:S9 S16:S21 M3:M8">
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="55" priority="23">
       <formula>IF(Q3=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="54" priority="24">
       <formula>IF(AND(Q3&gt;0, Q3&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="53" priority="25">
       <formula>Q3&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="23" priority="9">
+    <cfRule type="expression" dxfId="52" priority="10">
       <formula>IF($E$9=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6">
-    <cfRule type="expression" dxfId="22" priority="31">
+    <cfRule type="expression" dxfId="51" priority="32">
       <formula>IF($K$5=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5 T3">
-    <cfRule type="expression" dxfId="21" priority="32">
+    <cfRule type="expression" dxfId="50" priority="33">
       <formula>IF($K$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="49" priority="35">
       <formula>IF($K$3=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21 T4:T5">
-    <cfRule type="expression" dxfId="19" priority="41">
+    <cfRule type="expression" dxfId="48" priority="42">
       <formula>IF($Q$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16 H17">
-    <cfRule type="expression" dxfId="18" priority="44">
+    <cfRule type="expression" dxfId="47" priority="45">
       <formula>IF($Q$5=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="17" priority="46">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>IF($Q$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 H16">
-    <cfRule type="expression" dxfId="16" priority="53">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>IF($W$4=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20 N17">
-    <cfRule type="expression" dxfId="15" priority="55">
+    <cfRule type="expression" dxfId="44" priority="56">
       <formula>IF($W$3=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="expression" dxfId="14" priority="62">
+    <cfRule type="expression" dxfId="43" priority="63">
       <formula>IF($E$16=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A23 A3:A10 G3:G8">
-    <cfRule type="expression" dxfId="13" priority="63">
+    <cfRule type="expression" dxfId="42" priority="64">
       <formula>IF(E3=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="64">
+    <cfRule type="expression" dxfId="41" priority="65">
       <formula>IF(AND(E3&gt;0, E3&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="65">
+    <cfRule type="expression" dxfId="40" priority="66">
       <formula>E3&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16:G23">
-    <cfRule type="expression" dxfId="10" priority="66">
+    <cfRule type="expression" dxfId="39" priority="67">
       <formula>IF(K16=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="67">
+    <cfRule type="expression" dxfId="38" priority="68">
       <formula>IF(AND(K16&gt;0, K16&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="68">
+    <cfRule type="expression" dxfId="37" priority="69">
       <formula>K16&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M22">
-    <cfRule type="expression" dxfId="7" priority="69">
+    <cfRule type="expression" dxfId="36" priority="70">
       <formula>IF(Q16=0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="70">
+    <cfRule type="expression" dxfId="35" priority="71">
       <formula>IF(AND(Q16&gt;0, Q16&lt;2), TRUE, FALSE)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="71">
+    <cfRule type="expression" dxfId="34" priority="72">
       <formula>Q16&gt;=2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="33" priority="6">
       <formula>IF($E$9=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>IF($K$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="31" priority="4">
       <formula>IF($E$8=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="30" priority="3">
       <formula>IF($K$5=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="29" priority="2">
       <formula>IF($Q$6=0,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="expression" dxfId="28" priority="1">
+      <formula>IF($Q$7=0,TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2474,5 +2682,6 @@
     <hyperlink ref="H68" r:id="rId18" tooltip="Ders Listesini Görmek İçin Tıklayınız." display="http://www.sis.itu.edu.tr/tr/dersplan/plan/BLGE/20181083.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>